--- a/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
@@ -47,7 +47,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193</t>
+    <t>193.8</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -245,7 +245,7 @@
     <t>Data formazione documento</t>
   </si>
   <si>
-    <t>evento.trascrizioneCittadinanza.atto.enteEstero</t>
+    <t>evento.trascrizioneCittadinanza.attoEstero.enteEstero</t>
   </si>
   <si>
     <t>dataTrascrizione</t>
@@ -417,7 +417,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -425,23 +425,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -449,10 +450,10 @@
   <cols>
     <col min="1" max="1" width="29.484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.64453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1558,273 +1559,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9292B79-F92E-469E-89A7-9B73A7844374}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7FA954-E8A2-4188-BB19-2202FDEECF1D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E846E95-D678-48FA-9F86-295A6755AE42}"/>
 </file>
--- a/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -442,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -454,6 +460,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -475,45 +482,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -535,1025 +551,1181 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -460,7 +460,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Atto di matrimonio</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.8</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Atto di matrimonio</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.8</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -552,1180 +555,1180 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
@@ -1325,7 +1325,7 @@
         <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>80</v>
@@ -1348,7 +1348,7 @@
         <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>80</v>
@@ -1371,7 +1371,7 @@
         <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>80</v>
@@ -1394,7 +1394,7 @@
         <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>80</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -176,6 +176,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -362,22 +368,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -451,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -934,7 +940,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>32</v>
@@ -1026,7 +1032,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>32</v>
@@ -1141,7 +1147,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>32</v>
@@ -1204,19 +1210,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1227,16 +1233,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>83</v>
@@ -1250,7 +1256,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>84</v>
@@ -1259,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>85</v>
@@ -1273,7 +1279,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>86</v>
@@ -1282,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>87</v>
@@ -1296,16 +1302,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>89</v>
@@ -1319,7 +1325,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>90</v>
@@ -1328,7 +1334,7 @@
         <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1342,7 +1348,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
@@ -1351,7 +1357,7 @@
         <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1365,7 +1371,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
@@ -1374,7 +1380,7 @@
         <v>31</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1388,7 +1394,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1397,7 +1403,7 @@
         <v>31</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1411,19 +1417,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1434,16 +1440,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>103</v>
@@ -1457,7 +1463,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>104</v>
@@ -1466,7 +1472,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>105</v>
@@ -1480,7 +1486,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>106</v>
@@ -1489,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>107</v>
@@ -1503,7 +1509,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>108</v>
@@ -1512,7 +1518,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>109</v>
@@ -1526,7 +1532,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>110</v>
@@ -1535,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>111</v>
@@ -1549,7 +1555,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>112</v>
@@ -1558,10 +1564,10 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1572,19 +1578,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1595,7 +1601,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>115</v>
@@ -1604,10 +1610,10 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1618,19 +1624,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1641,7 +1647,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>118</v>
@@ -1650,7 +1656,7 @@
         <v>31</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>119</v>
@@ -1664,7 +1670,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>120</v>
@@ -1673,7 +1679,7 @@
         <v>31</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>121</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1710,7 +1716,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
@@ -1728,6 +1734,29 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -234,6 +234,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -457,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1170,7 +1194,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>32</v>
@@ -1193,7 +1217,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>32</v>
@@ -1216,7 +1240,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>32</v>
@@ -1233,19 +1257,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1256,19 +1280,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1279,19 +1303,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1302,19 +1326,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1325,16 +1349,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1348,16 +1372,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1371,16 +1395,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1394,16 +1418,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1417,7 +1441,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1426,7 +1450,7 @@
         <v>31</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1440,19 +1464,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1463,19 +1487,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1486,19 +1510,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1509,19 +1533,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1532,16 +1556,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>111</v>
@@ -1555,7 +1579,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>112</v>
@@ -1564,7 +1588,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>113</v>
@@ -1578,7 +1602,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>114</v>
@@ -1587,10 +1611,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1601,19 +1625,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1624,19 +1648,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1647,19 +1671,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1670,19 +1694,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1693,19 +1717,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1716,7 +1740,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
@@ -1725,10 +1749,10 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1739,24 +1763,116 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
   </si>
   <si>
     <t>Sesso</t>
@@ -481,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -780,7 +786,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
@@ -872,7 +878,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
@@ -987,7 +993,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>32</v>
@@ -1079,7 +1085,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>32</v>
@@ -1286,7 +1292,7 @@
         <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>32</v>
@@ -1349,19 +1355,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1372,16 +1378,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1395,7 +1401,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
@@ -1404,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1418,7 +1424,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1427,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1441,16 +1447,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1464,7 +1470,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1473,7 +1479,7 @@
         <v>31</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1487,7 +1493,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1496,7 +1502,7 @@
         <v>31</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1510,7 +1516,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1519,7 +1525,7 @@
         <v>31</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1533,7 +1539,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1542,7 +1548,7 @@
         <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1556,19 +1562,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1579,16 +1585,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>113</v>
@@ -1602,7 +1608,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>114</v>
@@ -1611,7 +1617,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>115</v>
@@ -1625,7 +1631,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>116</v>
@@ -1634,7 +1640,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>117</v>
@@ -1648,7 +1654,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>118</v>
@@ -1657,7 +1663,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>119</v>
@@ -1671,7 +1677,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>120</v>
@@ -1680,7 +1686,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>121</v>
@@ -1694,7 +1700,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>122</v>
@@ -1703,10 +1709,10 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1723,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1740,7 +1746,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
@@ -1749,10 +1755,10 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1769,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1786,7 +1792,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>128</v>
@@ -1795,7 +1801,7 @@
         <v>31</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>129</v>
@@ -1809,16 +1815,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>131</v>
@@ -1832,19 +1838,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1855,7 +1861,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>135</v>
@@ -1873,6 +1879,29 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -487,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1062,7 +1068,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>32</v>
@@ -1085,7 +1091,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>32</v>
@@ -1315,7 +1321,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>32</v>
@@ -1378,19 +1384,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1401,16 +1407,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1424,7 +1430,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1433,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1447,7 +1453,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1456,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1470,16 +1476,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1493,7 +1499,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1502,7 +1508,7 @@
         <v>31</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1516,7 +1522,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1525,7 +1531,7 @@
         <v>31</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1539,7 +1545,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1548,7 +1554,7 @@
         <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1571,7 +1577,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1585,19 +1591,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1608,16 +1614,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>115</v>
@@ -1631,7 +1637,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>116</v>
@@ -1640,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>117</v>
@@ -1654,7 +1660,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>118</v>
@@ -1663,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>119</v>
@@ -1677,7 +1683,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>120</v>
@@ -1686,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>121</v>
@@ -1700,7 +1706,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>122</v>
@@ -1709,7 +1715,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>123</v>
@@ -1723,7 +1729,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>124</v>
@@ -1732,10 +1738,10 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1746,19 +1752,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1769,7 +1775,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>127</v>
@@ -1778,10 +1784,10 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1798,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1815,7 +1821,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>130</v>
@@ -1824,7 +1830,7 @@
         <v>31</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>131</v>
@@ -1838,16 +1844,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>133</v>
@@ -1861,19 +1867,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1884,7 +1890,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>137</v>
@@ -1902,6 +1908,29 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1873,7 +1879,7 @@
         <v>134</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>114</v>
@@ -1890,19 +1896,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1913,7 +1919,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>139</v>
@@ -1931,6 +1937,29 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -290,6 +290,81 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Atto Nascita Cartaceo</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoPrimario</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].nomeStatoNascita,!=,"ITALIA"</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
     <t>Dati provvedimento del sindaco</t>
   </si>
   <si>
@@ -360,72 +435,6 @@
   </si>
   <si>
     <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -499,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -511,7 +520,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="46.8046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1419,7 +1428,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>94</v>
@@ -1431,7 +1440,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -1439,22 +1448,22 @@
         <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -1462,22 +1471,22 @@
         <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
@@ -1485,22 +1494,22 @@
         <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
@@ -1508,7 +1517,7 @@
         <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>31</v>
@@ -1517,13 +1526,13 @@
         <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
@@ -1531,7 +1540,7 @@
         <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>31</v>
@@ -1540,13 +1549,13 @@
         <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -1569,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47">
@@ -1586,13 +1595,13 @@
         <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
@@ -1600,7 +1609,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>31</v>
@@ -1609,99 +1618,99 @@
         <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1721,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1744,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1767,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1781,16 +1790,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -1804,19 +1813,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1836,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1859,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1882,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1905,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1928,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1942,24 +1951,300 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="B74" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
+      <c r="E74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -508,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -853,7 +865,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>32</v>
@@ -876,7 +888,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
@@ -922,7 +934,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
@@ -945,7 +957,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>32</v>
@@ -1037,7 +1049,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>32</v>
@@ -1060,7 +1072,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>32</v>
@@ -1083,7 +1095,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>32</v>
@@ -1106,7 +1118,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>32</v>
@@ -1359,7 +1371,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>32</v>
@@ -1382,7 +1394,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>32</v>
@@ -1422,76 +1434,76 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>101</v>
@@ -1500,7 +1512,7 @@
         <v>31</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>102</v>
@@ -1509,12 +1521,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>103</v>
@@ -1523,7 +1535,7 @@
         <v>31</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>104</v>
@@ -1532,12 +1544,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>105</v>
@@ -1546,113 +1558,113 @@
         <v>31</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1661,7 +1673,7 @@
         <v>31</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1670,12 +1682,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1684,7 +1696,7 @@
         <v>31</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1693,67 +1705,67 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>124</v>
@@ -1767,7 +1779,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
@@ -1776,7 +1788,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>126</v>
@@ -1790,16 +1802,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -1813,16 +1825,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>130</v>
@@ -1836,7 +1848,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>131</v>
@@ -1845,7 +1857,7 @@
         <v>31</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>132</v>
@@ -1859,7 +1871,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>133</v>
@@ -1868,7 +1880,7 @@
         <v>31</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>134</v>
@@ -1882,7 +1894,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>135</v>
@@ -1891,7 +1903,7 @@
         <v>31</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>136</v>
@@ -1905,19 +1917,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1940,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1986,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1997,7 +2009,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>101</v>
@@ -2006,7 +2018,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>102</v>
@@ -2020,16 +2032,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>104</v>
@@ -2043,7 +2055,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>105</v>
@@ -2052,10 +2064,10 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2078,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2101,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2124,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2147,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,7 +2170,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>113</v>
@@ -2167,7 +2179,7 @@
         <v>31</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>114</v>
@@ -2181,7 +2193,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>115</v>
@@ -2190,7 +2202,7 @@
         <v>31</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>116</v>
@@ -2207,16 +2219,16 @@
         <v>141</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2230,21 +2242,67 @@
         <v>141</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E76" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
+      <c r="B77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>18</v>
       </c>
     </row>
